--- a/Mesh SDK.xlsx
+++ b/Mesh SDK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Austin\.git\ZengeeBLEMeshBleak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB832BE-9D1B-42BD-9FAB-A848C3343E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D27FB8-4A7B-40D3-B261-35B4186EC1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
   <si>
     <t>[0][1][2]</t>
   </si>
@@ -495,27 +495,6 @@
     <t>[Action]</t>
   </si>
   <si>
-    <t>[Device code] 0xFF means that the device code is not considered, otherwise it needs to be judged that the device code is equal to the current device before processing;
-[Action] 0x01 stands for setting the switch. Value1 = 0 is off, and Value1 is non-zero is on.
-0x02 stands for setting the brightness. 
-Value1 brightness%, value range 0~100.If the brightness is 0, turn off the light and remember the original state
-value2: Select the dimming target
-0x01 Set RGB and keep WC
-0x02 Set WC, keep RGB
-0x03 Set RGB and WC brightness
-0x04 Set RGB and turn off WC
-0x05 Set WC, turn off RGB
-0x06 According to the current situation, the lights are set
-0x03 represents increasing brightness According to the current situation, the lights are increased, and if the original state is off, the default brightness of 1% begins to increase.
-value1 Select the brightness percentage to increase (1-100) 0 or greater than 100, increase by default by 10%
-0x04 represents reduced brightness According to the current situation, the lights are reduced, and if the original is off, the default brightness is 1%. Minimum limit 1%
-value1 Select the percentage of brightness reduced (1-100) 0 or greater than 100, default reduction of 10%
-[delay] unit 100ms, value range (0~1.82 hours, that is, 0~65535), if it is 0, execute immediately, if it is greater than 0, delay execution.
-[Gradient] unit 100ms, value range (0~1.82 hours, that is, 0~65535), if it is 0, it will change color immediately, if it is greater than 0, it will change color gradually.
-1. If the brightness is 0 after setting, turn off the light and retain the state before turning off the light;
-2. If the original is to turn off the light, turn on the light first;</t>
-  </si>
-  <si>
     <t>[Flash interval]</t>
   </si>
   <si>
@@ -539,12 +518,233 @@
 1. If the brightness is 0 after setting, turn off the light and retain the state before turning off the light;
 2. If the original is to turn off the light, turn on the light first;</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Device code] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>0xFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> means that the device code is not considered, otherwise it needs to be judged that the device code is equal to the current device before processing;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Action]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>0x01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> stands for setting the switch. Value1 = 0 is off, and Value1 is non-zero is on.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>0x02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> stands for setting the brightness. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>Value1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> brightness%, value range 0~100.If the brightness is 0, turn off the light and remember the original state
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>Value2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Select the dimming target
+0x01 Set RGB and keep WC
+0x02 Set WC, keep RGB
+0x03 Set RGB and WC brightness
+0x04 Set RGB and turn off WC
+0x05 Set WC, turn off RGB
+0x06 According to the current situation, the lights are set
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>0x03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> represents increasing brightness According to the current situation, the lights are increased, and if the original state is off, the default brightness of 1% begins to increase.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>Value1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Select the brightness percentage to increase (1-100) 0 or greater than 100, increase by default by 10%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>0x04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> represents reduced brightness According to the current situation, the lights are reduced, and if the original is off, the default brightness is 1%. Minimum limit 1%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>Value1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Select the percentage of brightness reduced (1-100) 0 or greater than 100, default reduction of 10%
+[delay] unit 100ms, value range (0~1.82 hours, that is, 0~65535), if it is 0, execute immediately, if it is greater than 0, delay execution.
+[Gradient] unit 100ms, value range (0~1.82 hours, that is, 0~65535), if it is 0, it will change color immediately, if it is greater than 0, it will change color gradually.
+1. If the brightness is 0 after setting, turn off the light and retain the state before turning off the light;
+2. If the original is to turn off the light, turn on the light first;</t>
+    </r>
+  </si>
+  <si>
+    <t>[Device Code]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +889,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -861,7 +1132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -977,6 +1248,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1004,24 +1293,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1031,11 +1320,14 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1046,29 +1338,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1364,20 +1647,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
     </row>
     <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="1"/>
@@ -1406,28 +1689,28 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="36">
-      <c r="A4" s="41"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1505,15 +1788,15 @@
       <c r="A7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
       <c r="I7" s="16"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -1523,15 +1806,15 @@
       <c r="A8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -1611,11 +1894,11 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -1627,12 +1910,12 @@
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="15.75">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="14"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
@@ -1713,25 +1996,25 @@
       <c r="B6" s="16"/>
       <c r="C6" s="30"/>
       <c r="D6" s="31"/>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
     </row>
     <row r="7" spans="1:14" ht="15.75">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -1743,12 +2026,12 @@
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="15.75">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="14"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -1807,25 +2090,25 @@
       <c r="B11" s="16"/>
       <c r="C11" s="30"/>
       <c r="D11" s="31"/>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:14" ht="15.75">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1837,12 +2120,12 @@
       <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" ht="15.75">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -1925,25 +2208,25 @@
       <c r="B16" s="16"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
     </row>
     <row r="17" spans="1:14" ht="15.75">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -1955,12 +2238,12 @@
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" ht="15.75">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="14"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -2041,25 +2324,25 @@
       <c r="B21" s="16"/>
       <c r="C21" s="30"/>
       <c r="D21" s="31"/>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
     </row>
     <row r="22" spans="1:14" ht="15.75">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -2071,12 +2354,12 @@
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:14" ht="15.75">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="14"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
@@ -2093,7 +2376,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="28" t="s">
@@ -2161,25 +2444,25 @@
       <c r="B26" s="16"/>
       <c r="C26" s="30"/>
       <c r="D26" s="31"/>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
     </row>
     <row r="27" spans="1:14" ht="15.75">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -2191,12 +2474,12 @@
       <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:14" ht="15.75">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="14"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
@@ -2213,7 +2496,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="26"/>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="28" t="s">
@@ -2279,25 +2562,25 @@
       <c r="B31" s="16"/>
       <c r="C31" s="30"/>
       <c r="D31" s="31"/>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
     </row>
     <row r="32" spans="1:14" ht="15.75">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -2309,12 +2592,12 @@
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" ht="15.75">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="14"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
@@ -2387,25 +2670,25 @@
       <c r="B36" s="16"/>
       <c r="C36" s="30"/>
       <c r="D36" s="31"/>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
     </row>
     <row r="37" spans="1:14" ht="15.75">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -2417,12 +2700,12 @@
       <c r="N37" s="15"/>
     </row>
     <row r="38" spans="1:14" ht="18">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="14"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
@@ -2439,7 +2722,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="26"/>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D39" s="30" t="s">
@@ -2503,21 +2786,33 @@
       <c r="B41" s="16"/>
       <c r="C41" s="30"/>
       <c r="D41" s="31"/>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E41:N41"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E31:N31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E36:N36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:D38"/>
     <mergeCell ref="E21:N21"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:D3"/>
@@ -2530,18 +2825,6 @@
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E41:N41"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E31:N31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E36:N36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:D38"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2553,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589FC8A3-4845-42B4-B494-7F8615EAB343}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:M21"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2610,10 +2893,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
@@ -2625,11 +2908,11 @@
       <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="14"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -2645,37 +2928,37 @@
       <c r="A4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="41" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="40" t="s">
         <v>125</v>
       </c>
       <c r="M4" s="15"/>
@@ -2703,18 +2986,18 @@
       <c r="A6" s="16"/>
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
     </row>
     <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="15"/>
@@ -2732,11 +3015,11 @@
       <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:13" ht="16.5">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="14"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -2752,7 +3035,7 @@
       <c r="A9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="41" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -2804,24 +3087,24 @@
       <c r="A11" s="16"/>
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="68"/>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -2833,11 +3116,11 @@
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:13" ht="37.5" customHeight="1">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="14"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
@@ -2853,22 +3136,22 @@
       <c r="A14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="41" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="72" t="s">
         <v>54</v>
       </c>
       <c r="H14" s="18" t="s">
@@ -2909,24 +3192,24 @@
       <c r="A16" s="16"/>
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
-      <c r="D16" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
+      <c r="D16" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
     </row>
     <row r="17" spans="1:13" ht="15.75">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -2938,11 +3221,11 @@
       <c r="M17" s="15"/>
     </row>
     <row r="18" spans="1:13" ht="15.75">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="14"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
@@ -2958,7 +3241,7 @@
       <c r="A19" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="41" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -2986,13 +3269,13 @@
         <v>123</v>
       </c>
       <c r="K19" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="M19" s="35" t="s">
         <v>133</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75">
@@ -3016,32 +3299,32 @@
       <c r="A21" s="16"/>
       <c r="B21" s="30"/>
       <c r="C21" s="31"/>
-      <c r="D21" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
+      <c r="D21" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D21:M21"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D6:M6"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D11:M11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D21:M21"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
